--- a/user/workDB/saldo.xlsx
+++ b/user/workDB/saldo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="12900" windowHeight="9870"/>
@@ -9,15 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="3">
-  <si>
-    <t>Субсидії</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="2">
   <si>
     <t>Пільга</t>
   </si>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -129,7 +126,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -175,7 +172,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Офіс">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -213,9 +210,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Офіс">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,7 +247,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,7 +282,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Офіс">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K278"/>
+  <dimension ref="A1:K272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="K278" sqref="K278"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="I276" sqref="I276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,27 +478,21 @@
         <v>110091001</v>
       </c>
       <c r="B1" s="5">
-        <v>43485</v>
+        <v>43518</v>
       </c>
       <c r="C1" s="1">
-        <v>199.96</v>
+        <v>237.77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>110091002</v>
       </c>
-      <c r="B2" s="5">
-        <v>43489</v>
-      </c>
-      <c r="C2" s="1">
-        <v>286</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -509,13 +500,13 @@
         <v>110091003</v>
       </c>
       <c r="B3" s="5">
-        <v>43482</v>
+        <v>43521</v>
       </c>
       <c r="C3" s="1">
-        <v>177.67</v>
+        <v>236.98</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -523,13 +514,13 @@
         <v>110091004</v>
       </c>
       <c r="B4" s="5">
-        <v>43490</v>
+        <v>43523</v>
       </c>
       <c r="C4" s="1">
-        <v>108.48</v>
+        <v>168.64</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -541,7 +532,7 @@
         <v>110091005</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -553,13 +544,13 @@
         <v>110091006</v>
       </c>
       <c r="B6" s="5">
-        <v>43103</v>
+        <v>43524</v>
       </c>
       <c r="C6" s="1">
-        <v>771</v>
+        <v>27.34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -570,14 +561,8 @@
       <c r="A7" s="3">
         <v>110091007</v>
       </c>
-      <c r="B7" s="5">
-        <v>43479</v>
-      </c>
-      <c r="C7" s="1">
-        <v>221.43</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -589,7 +574,7 @@
         <v>110091008</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -601,13 +586,13 @@
         <v>110091009</v>
       </c>
       <c r="B9" s="5">
-        <v>43490</v>
+        <v>43520</v>
       </c>
       <c r="C9" s="1">
-        <v>183.08</v>
+        <v>241.43</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -615,8 +600,14 @@
       <c r="A10" s="3">
         <v>110091010</v>
       </c>
+      <c r="B10" s="5">
+        <v>43518</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1401.9</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -624,8 +615,14 @@
       <c r="A11" s="3">
         <v>110091011</v>
       </c>
+      <c r="B11" s="5">
+        <v>43518</v>
+      </c>
+      <c r="C11" s="1">
+        <v>680.86</v>
+      </c>
       <c r="D11" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="7"/>
     </row>
@@ -633,8 +630,14 @@
       <c r="A12" s="3">
         <v>110091012</v>
       </c>
+      <c r="B12" s="5">
+        <v>43500</v>
+      </c>
+      <c r="C12" s="1">
+        <v>280.74</v>
+      </c>
       <c r="D12" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -643,7 +646,7 @@
         <v>110091013</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="7"/>
     </row>
@@ -652,13 +655,13 @@
         <v>110091014</v>
       </c>
       <c r="B14" s="5">
-        <v>43487</v>
+        <v>43516</v>
       </c>
       <c r="C14" s="1">
         <v>312</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -667,13 +670,13 @@
         <v>110091015</v>
       </c>
       <c r="B15" s="5">
-        <v>43469</v>
+        <v>43521</v>
       </c>
       <c r="C15" s="1">
-        <v>199.51</v>
+        <v>278.64</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -682,13 +685,13 @@
         <v>110091016</v>
       </c>
       <c r="B16" s="5">
-        <v>43489</v>
+        <v>43521</v>
       </c>
       <c r="C16" s="1">
-        <v>207.06</v>
+        <v>330.72</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" s="7"/>
     </row>
@@ -696,14 +699,8 @@
       <c r="A17" s="3">
         <v>110091017</v>
       </c>
-      <c r="B17" s="5">
-        <v>43495</v>
-      </c>
-      <c r="C17" s="1">
-        <v>254.26</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -712,7 +709,7 @@
         <v>110091018</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="9"/>
     </row>
@@ -721,7 +718,7 @@
         <v>110091019</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="7"/>
     </row>
@@ -730,7 +727,7 @@
         <v>110091020</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -739,7 +736,7 @@
         <v>110091021</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="7"/>
     </row>
@@ -748,13 +745,13 @@
         <v>110091022</v>
       </c>
       <c r="B22" s="5">
-        <v>43481</v>
+        <v>43519</v>
       </c>
       <c r="C22" s="1">
-        <v>40.25</v>
+        <v>80.27</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="7"/>
     </row>
@@ -763,13 +760,13 @@
         <v>110091023</v>
       </c>
       <c r="B23" s="5">
-        <v>43488</v>
+        <v>43521</v>
       </c>
       <c r="C23" s="1">
-        <v>124.69</v>
+        <v>161</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -778,7 +775,7 @@
         <v>110091024</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -786,14 +783,8 @@
       <c r="A25" s="3">
         <v>110091025</v>
       </c>
-      <c r="B25" s="5">
-        <v>43486</v>
-      </c>
-      <c r="C25" s="1">
-        <v>639.79999999999995</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="7"/>
     </row>
@@ -802,7 +793,7 @@
         <v>110091026</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="7"/>
     </row>
@@ -811,7 +802,7 @@
         <v>110091027</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" s="7"/>
     </row>
@@ -820,13 +811,13 @@
         <v>110091028</v>
       </c>
       <c r="B28" s="5">
-        <v>43486</v>
+        <v>43521</v>
       </c>
       <c r="C28" s="1">
-        <v>668.6</v>
+        <v>688.45</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" s="7"/>
     </row>
@@ -835,7 +826,7 @@
         <v>110091029</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" s="7"/>
     </row>
@@ -844,7 +835,7 @@
         <v>110091030</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="7"/>
     </row>
@@ -852,14 +843,8 @@
       <c r="A31" s="3">
         <v>110091031</v>
       </c>
-      <c r="B31" s="5">
-        <v>43487</v>
-      </c>
-      <c r="C31" s="1">
-        <v>13.7</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="7"/>
     </row>
@@ -868,13 +853,13 @@
         <v>110091032</v>
       </c>
       <c r="B32" s="5">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="C32" s="1">
-        <v>455.7</v>
+        <v>53.95</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="7"/>
     </row>
@@ -883,7 +868,7 @@
         <v>110091033</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="7"/>
     </row>
@@ -892,7 +877,7 @@
         <v>110091034</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" s="7"/>
     </row>
@@ -901,7 +886,7 @@
         <v>110091035</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -912,14 +897,8 @@
       <c r="A36" s="3">
         <v>110091036</v>
       </c>
-      <c r="B36" s="5">
-        <v>43488</v>
-      </c>
-      <c r="C36" s="1">
-        <v>113.17</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
@@ -931,7 +910,7 @@
         <v>110091037</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -942,8 +921,14 @@
       <c r="A38" s="3">
         <v>110091038</v>
       </c>
+      <c r="B38" s="5">
+        <v>43521</v>
+      </c>
+      <c r="C38" s="1">
+        <v>62.2</v>
+      </c>
       <c r="D38" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -955,13 +940,13 @@
         <v>110091039</v>
       </c>
       <c r="B39" s="5">
-        <v>43487</v>
+        <v>43503</v>
       </c>
       <c r="C39" s="1">
-        <v>150</v>
+        <v>160.83000000000001</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -973,7 +958,7 @@
         <v>110091040</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -985,13 +970,13 @@
         <v>110091041</v>
       </c>
       <c r="B41" s="5">
-        <v>43482</v>
+        <v>43521</v>
       </c>
       <c r="C41" s="1">
-        <v>122.19</v>
+        <v>200.67</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
@@ -1003,7 +988,7 @@
         <v>110091042</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -1015,7 +1000,7 @@
         <v>110091043</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
@@ -1027,13 +1012,13 @@
         <v>110091044</v>
       </c>
       <c r="B44" s="5">
-        <v>43468</v>
+        <v>43518</v>
       </c>
       <c r="C44" s="1">
-        <v>180.29</v>
+        <v>71.55</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="7"/>
@@ -1045,13 +1030,13 @@
         <v>110091045</v>
       </c>
       <c r="B45" s="5">
-        <v>43468</v>
+        <v>43518</v>
       </c>
       <c r="C45" s="1">
-        <v>150.87</v>
+        <v>71.55</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
@@ -1063,7 +1048,7 @@
         <v>110091046</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
@@ -1074,8 +1059,14 @@
       <c r="A47" s="3">
         <v>110091047</v>
       </c>
+      <c r="B47" s="5">
+        <v>43512</v>
+      </c>
+      <c r="C47" s="1">
+        <v>300</v>
+      </c>
       <c r="D47" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
@@ -1087,13 +1078,13 @@
         <v>110091048</v>
       </c>
       <c r="B48" s="5">
-        <v>43495</v>
+        <v>43521</v>
       </c>
       <c r="C48" s="2">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
@@ -1106,7 +1097,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
@@ -1118,7 +1109,7 @@
         <v>110091050</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
@@ -1130,13 +1121,13 @@
         <v>110091051</v>
       </c>
       <c r="B51" s="5">
-        <v>43486</v>
+        <v>43518</v>
       </c>
       <c r="C51" s="1">
         <v>130</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -1149,7 +1140,7 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
@@ -1160,14 +1151,8 @@
       <c r="A53" s="3">
         <v>110091053</v>
       </c>
-      <c r="B53" s="5">
-        <v>43109</v>
-      </c>
-      <c r="C53" s="1">
-        <v>872.54</v>
-      </c>
       <c r="D53" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
@@ -1179,13 +1164,13 @@
         <v>110091054</v>
       </c>
       <c r="B54" s="5">
-        <v>43496</v>
+        <v>43524</v>
       </c>
       <c r="C54" s="1">
-        <v>302.86</v>
+        <v>294.60000000000002</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -1197,7 +1182,7 @@
         <v>110091055</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
@@ -1209,7 +1194,7 @@
         <v>110091056</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" s="10"/>
       <c r="I56" s="7"/>
@@ -1221,7 +1206,7 @@
         <v>110091057</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
@@ -1233,7 +1218,7 @@
         <v>110091058</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -1244,8 +1229,14 @@
       <c r="A59" s="3">
         <v>110091059</v>
       </c>
+      <c r="B59" s="5">
+        <v>43501</v>
+      </c>
+      <c r="C59" s="1">
+        <v>706.13</v>
+      </c>
       <c r="D59" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -1257,13 +1248,13 @@
         <v>110091060</v>
       </c>
       <c r="B60" s="5">
-        <v>43489</v>
+        <v>43521</v>
       </c>
       <c r="C60" s="1">
-        <v>200</v>
+        <v>344.39</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -1275,7 +1266,7 @@
         <v>110091061</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
@@ -1287,7 +1278,7 @@
         <v>110091062</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -1299,13 +1290,13 @@
         <v>110091063</v>
       </c>
       <c r="B63" s="5">
-        <v>43487</v>
+        <v>43521</v>
       </c>
       <c r="C63" s="1">
-        <v>167.64</v>
+        <v>177.04</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
@@ -1317,7 +1308,7 @@
         <v>110091064</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
@@ -1329,7 +1320,7 @@
         <v>110091065</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -1341,13 +1332,13 @@
         <v>110091066</v>
       </c>
       <c r="B66" s="5">
-        <v>43487</v>
+        <v>43518</v>
       </c>
       <c r="C66" s="1">
-        <v>349.58</v>
+        <v>575.73</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
@@ -1359,7 +1350,7 @@
         <v>110091067</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
@@ -1371,7 +1362,7 @@
         <v>110091068</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
@@ -1383,7 +1374,7 @@
         <v>110091069</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -1394,14 +1385,8 @@
       <c r="A70" s="3">
         <v>110091070</v>
       </c>
-      <c r="B70" s="5">
-        <v>43489</v>
-      </c>
-      <c r="C70" s="1">
-        <v>50</v>
-      </c>
       <c r="D70" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
@@ -1413,7 +1398,7 @@
         <v>110091071</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
@@ -1425,7 +1410,7 @@
         <v>110091072</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -1437,7 +1422,7 @@
         <v>110091073</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
@@ -1448,14 +1433,8 @@
       <c r="A74" s="3">
         <v>110091074</v>
       </c>
-      <c r="B74" s="5">
-        <v>43490</v>
-      </c>
-      <c r="C74" s="1">
-        <v>276.62</v>
-      </c>
       <c r="D74" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
@@ -1467,13 +1446,13 @@
         <v>110091075</v>
       </c>
       <c r="B75" s="5">
-        <v>43490</v>
+        <v>43522</v>
       </c>
       <c r="C75" s="1">
-        <v>236.22</v>
+        <v>238.37</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
@@ -1485,13 +1464,13 @@
         <v>110091076</v>
       </c>
       <c r="B76" s="5">
-        <v>43486</v>
+        <v>43521</v>
       </c>
       <c r="C76" s="1">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
@@ -1502,14 +1481,8 @@
       <c r="A77" s="3">
         <v>110091077</v>
       </c>
-      <c r="B77" s="5">
-        <v>43496</v>
-      </c>
-      <c r="C77" s="1">
-        <v>19.89</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
@@ -1520,8 +1493,14 @@
       <c r="A78" s="3">
         <v>110091078</v>
       </c>
+      <c r="B78" s="5">
+        <v>43502</v>
+      </c>
+      <c r="C78" s="1">
+        <v>500</v>
+      </c>
       <c r="D78" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
@@ -1532,9 +1511,14 @@
       <c r="A79" s="3">
         <v>110091079</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="B79" s="5">
+        <v>43502</v>
+      </c>
+      <c r="C79" s="2">
+        <v>7</v>
+      </c>
       <c r="D79" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
@@ -1546,7 +1530,7 @@
         <v>110091080</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
@@ -1558,7 +1542,7 @@
         <v>110091081</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
@@ -1570,7 +1554,7 @@
         <v>110091082</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
@@ -1582,13 +1566,13 @@
         <v>110091083</v>
       </c>
       <c r="B83" s="5">
-        <v>43488</v>
+        <v>43523</v>
       </c>
       <c r="C83" s="1">
-        <v>204.6</v>
+        <v>193.74</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
@@ -1599,8 +1583,14 @@
       <c r="A84" s="3">
         <v>110091084</v>
       </c>
+      <c r="B84" s="5">
+        <v>43517</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
       <c r="D84" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
@@ -1611,14 +1601,8 @@
       <c r="A85" s="3">
         <v>110091085</v>
       </c>
-      <c r="B85" s="5">
-        <v>43473</v>
-      </c>
-      <c r="C85" s="1">
-        <v>185</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -1629,14 +1613,8 @@
       <c r="A86" s="3">
         <v>110091086</v>
       </c>
-      <c r="B86" s="5">
-        <v>43473</v>
-      </c>
-      <c r="C86" s="1">
-        <v>185</v>
-      </c>
       <c r="D86" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
@@ -1648,7 +1626,7 @@
         <v>110091087</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
@@ -1659,14 +1637,8 @@
       <c r="A88" s="3">
         <v>110091088</v>
       </c>
-      <c r="B88" s="5">
-        <v>43494</v>
-      </c>
-      <c r="C88" s="1">
-        <v>393.37</v>
-      </c>
       <c r="D88" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
@@ -1678,7 +1650,7 @@
         <v>110091089</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
@@ -1689,14 +1661,8 @@
       <c r="A90" s="3">
         <v>110091090</v>
       </c>
-      <c r="B90" s="5">
-        <v>43488</v>
-      </c>
-      <c r="C90" s="1">
-        <v>94.94</v>
-      </c>
       <c r="D90" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
@@ -1708,13 +1674,13 @@
         <v>110091091</v>
       </c>
       <c r="B91" s="5">
-        <v>43482</v>
+        <v>43515</v>
       </c>
       <c r="C91" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
@@ -1725,9 +1691,14 @@
       <c r="A92" s="3">
         <v>110091092</v>
       </c>
-      <c r="C92" s="2"/>
+      <c r="B92" s="5">
+        <v>43522</v>
+      </c>
+      <c r="C92" s="2">
+        <v>43.37</v>
+      </c>
       <c r="D92" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
@@ -1739,13 +1710,13 @@
         <v>110091093</v>
       </c>
       <c r="B93" s="5">
-        <v>43487</v>
+        <v>43516</v>
       </c>
       <c r="C93" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
@@ -1756,14 +1727,8 @@
       <c r="A94" s="3">
         <v>110091094</v>
       </c>
-      <c r="B94" s="5">
-        <v>43489</v>
-      </c>
-      <c r="C94" s="1">
-        <v>125.93</v>
-      </c>
       <c r="D94" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
@@ -1775,7 +1740,7 @@
         <v>110091095</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
@@ -1787,15 +1752,21 @@
         <v>110091096</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>110091097</v>
       </c>
+      <c r="B97" s="5">
+        <v>43521</v>
+      </c>
+      <c r="C97" s="1">
+        <v>168.47</v>
+      </c>
       <c r="D97" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,7 +1774,7 @@
         <v>110091098</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -1811,7 +1782,7 @@
         <v>120142001</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -1819,21 +1790,15 @@
         <v>120142002</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>120142003</v>
       </c>
-      <c r="B101" s="5">
-        <v>43483</v>
-      </c>
-      <c r="C101" s="1">
-        <v>8.2799999999999994</v>
-      </c>
       <c r="D101" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,7 +1806,7 @@
         <v>120142004</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -1849,16 +1814,21 @@
         <v>120142005</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>120142006</v>
       </c>
-      <c r="C104" s="2"/>
+      <c r="B104" s="5">
+        <v>43505</v>
+      </c>
+      <c r="C104" s="2">
+        <v>30</v>
+      </c>
       <c r="D104" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -1866,7 +1836,7 @@
         <v>120142007</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1874,7 +1844,7 @@
         <v>120142008</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -1882,7 +1852,7 @@
         <v>120142009</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -1890,7 +1860,7 @@
         <v>120142010</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -1898,13 +1868,13 @@
         <v>120142011</v>
       </c>
       <c r="B109" s="5">
-        <v>43104</v>
+        <v>43517</v>
       </c>
       <c r="C109" s="1">
-        <v>149</v>
+        <v>250</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -1912,29 +1882,29 @@
         <v>120142012</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>120142013</v>
       </c>
-      <c r="B111" s="5">
-        <v>43483</v>
-      </c>
-      <c r="C111" s="1">
-        <v>133.47999999999999</v>
-      </c>
       <c r="D111" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>120142014</v>
       </c>
+      <c r="B112" s="5">
+        <v>43522</v>
+      </c>
+      <c r="C112" s="1">
+        <v>123.93</v>
+      </c>
       <c r="D112" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -1942,7 +1912,7 @@
         <v>120142015</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,7 +1920,7 @@
         <v>120142016</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -1958,23 +1928,35 @@
         <v>120142017</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>120142018</v>
       </c>
+      <c r="B116" s="5">
+        <v>43524</v>
+      </c>
+      <c r="C116" s="1">
+        <v>200</v>
+      </c>
       <c r="D116" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>120142019</v>
       </c>
+      <c r="B117" s="5">
+        <v>43511</v>
+      </c>
+      <c r="C117" s="1">
+        <v>303.39</v>
+      </c>
       <c r="D117" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -1982,7 +1964,7 @@
         <v>120142020</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -1990,7 +1972,7 @@
         <v>120142021</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,7 +1980,7 @@
         <v>120142022</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2006,7 +1988,7 @@
         <v>120142023</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2014,49 +1996,31 @@
         <v>120142024</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>120142025</v>
       </c>
-      <c r="B123" s="5">
-        <v>43486</v>
-      </c>
-      <c r="C123" s="1">
-        <v>122.02</v>
-      </c>
       <c r="D123" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>120142026</v>
       </c>
-      <c r="B124" s="5">
-        <v>43490</v>
-      </c>
-      <c r="C124" s="1">
-        <v>100</v>
-      </c>
       <c r="D124" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>120142027</v>
       </c>
-      <c r="B125" s="5">
-        <v>43483</v>
-      </c>
-      <c r="C125" s="1">
-        <v>55.94</v>
-      </c>
       <c r="D125" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2064,27 +2028,21 @@
         <v>120142028</v>
       </c>
       <c r="B126" s="5">
-        <v>43479</v>
+        <v>43510</v>
       </c>
       <c r="C126" s="1">
-        <v>28.85</v>
+        <v>85.05</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>120142029</v>
       </c>
-      <c r="B127" s="5">
-        <v>43475</v>
-      </c>
-      <c r="C127" s="1">
-        <v>15.23</v>
-      </c>
       <c r="D127" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2092,7 +2050,7 @@
         <v>120142030</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2100,7 +2058,7 @@
         <v>120142031</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2108,21 +2066,15 @@
         <v>120142032</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>120142033</v>
       </c>
-      <c r="B131" s="5">
-        <v>43482</v>
-      </c>
-      <c r="C131" s="1">
-        <v>663.92</v>
-      </c>
       <c r="D131" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2130,7 +2082,7 @@
         <v>120142034</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -2138,13 +2090,13 @@
         <v>120142035</v>
       </c>
       <c r="B133" s="5">
-        <v>43487</v>
+        <v>43524</v>
       </c>
       <c r="C133" s="1">
-        <v>98</v>
+        <v>170.39</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -2152,27 +2104,21 @@
         <v>120142036</v>
       </c>
       <c r="B134" s="5">
-        <v>43493</v>
+        <v>43524</v>
       </c>
       <c r="C134" s="1">
-        <v>31.83</v>
+        <v>45.49</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>120142037</v>
       </c>
-      <c r="B135" s="5">
-        <v>43489</v>
-      </c>
-      <c r="C135" s="1">
-        <v>249.88</v>
-      </c>
       <c r="D135" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -2180,21 +2126,15 @@
         <v>120142038</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>120142039</v>
       </c>
-      <c r="B137" s="5">
-        <v>43483</v>
-      </c>
-      <c r="C137" s="1">
-        <v>40.85</v>
-      </c>
       <c r="D137" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -2202,21 +2142,15 @@
         <v>120142040</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>120142041</v>
       </c>
-      <c r="B139" s="5">
-        <v>43486</v>
-      </c>
-      <c r="C139" s="1">
-        <v>5.88</v>
-      </c>
       <c r="D139" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -2224,7 +2158,7 @@
         <v>120142042</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -2232,7 +2166,7 @@
         <v>120142043</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -2240,13 +2174,13 @@
         <v>120142044</v>
       </c>
       <c r="B142" s="5">
-        <v>43482</v>
+        <v>43521</v>
       </c>
       <c r="C142" s="1">
-        <v>100</v>
+        <v>358.15</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2254,7 +2188,7 @@
         <v>120142045</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -2262,7 +2196,7 @@
         <v>120142046</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -2270,13 +2204,13 @@
         <v>120142047</v>
       </c>
       <c r="B145" s="5">
-        <v>43487</v>
+        <v>43522</v>
       </c>
       <c r="C145" s="1">
-        <v>139.87</v>
+        <v>142.96</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -2284,7 +2218,7 @@
         <v>120142048</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -2292,13 +2226,13 @@
         <v>120142049</v>
       </c>
       <c r="B147" s="5">
-        <v>43489</v>
+        <v>43521</v>
       </c>
       <c r="C147" s="1">
-        <v>100</v>
+        <v>220.16</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -2306,21 +2240,15 @@
         <v>120142050</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>120142051</v>
       </c>
-      <c r="B149" s="5">
-        <v>43496</v>
-      </c>
-      <c r="C149" s="1">
-        <v>153.02000000000001</v>
-      </c>
       <c r="D149" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -2328,13 +2256,13 @@
         <v>120142052</v>
       </c>
       <c r="B150" s="5">
-        <v>43473</v>
+        <v>43521</v>
       </c>
       <c r="C150" s="1">
-        <v>181.77</v>
+        <v>298.48</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -2342,21 +2270,15 @@
         <v>120142053</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>120142054</v>
       </c>
-      <c r="B152" s="5">
-        <v>43490</v>
-      </c>
-      <c r="C152" s="1">
-        <v>100</v>
-      </c>
       <c r="D152" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -2364,13 +2286,13 @@
         <v>120142055</v>
       </c>
       <c r="B153" s="5">
-        <v>43483</v>
+        <v>43521</v>
       </c>
       <c r="C153" s="1">
-        <v>400</v>
+        <v>494.26</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -2378,27 +2300,21 @@
         <v>120142056</v>
       </c>
       <c r="B154" s="5">
-        <v>43468</v>
+        <v>43518</v>
       </c>
       <c r="C154" s="1">
-        <v>140</v>
+        <v>405</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>120142057</v>
       </c>
-      <c r="B155" s="5">
-        <v>43488</v>
-      </c>
-      <c r="C155" s="1">
-        <v>22.41</v>
-      </c>
       <c r="D155" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -2406,21 +2322,15 @@
         <v>120142058</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>120142059</v>
       </c>
-      <c r="B157" s="5">
-        <v>43494</v>
-      </c>
-      <c r="C157" s="1">
-        <v>150</v>
-      </c>
       <c r="D157" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -2428,7 +2338,7 @@
         <v>120142060</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -2436,29 +2346,29 @@
         <v>120142061</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>120142062</v>
       </c>
+      <c r="B160" s="5">
+        <v>43518</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1244.7</v>
+      </c>
       <c r="D160" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>120142063</v>
       </c>
-      <c r="B161" s="5">
-        <v>43495</v>
-      </c>
-      <c r="C161" s="1">
-        <v>155.56</v>
-      </c>
       <c r="D161" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -2466,7 +2376,7 @@
         <v>120142064</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -2474,15 +2384,21 @@
         <v>120142065</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>120142066</v>
       </c>
+      <c r="B164" s="5">
+        <v>43514</v>
+      </c>
+      <c r="C164" s="1">
+        <v>990.1</v>
+      </c>
       <c r="D164" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -2490,7 +2406,7 @@
         <v>120142067</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -2498,7 +2414,7 @@
         <v>120142068</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -2506,15 +2422,21 @@
         <v>120142069</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>120142070</v>
       </c>
+      <c r="B168" s="5">
+        <v>43518</v>
+      </c>
+      <c r="C168" s="1">
+        <v>59.04</v>
+      </c>
       <c r="D168" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -2522,13 +2444,13 @@
         <v>120142071</v>
       </c>
       <c r="B169" s="5">
-        <v>43493</v>
+        <v>43521</v>
       </c>
       <c r="C169" s="1">
-        <v>50.28</v>
+        <v>51.4</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -2536,7 +2458,7 @@
         <v>120142072</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -2544,7 +2466,7 @@
         <v>120142073</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,7 +2474,7 @@
         <v>120142074</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -2560,21 +2482,15 @@
         <v>120142075</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>120142076</v>
       </c>
-      <c r="B174" s="5">
-        <v>43486</v>
-      </c>
-      <c r="C174" s="1">
-        <v>455.55</v>
-      </c>
       <c r="D174" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -2582,7 +2498,7 @@
         <v>120142077</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -2590,13 +2506,13 @@
         <v>120142078</v>
       </c>
       <c r="B176" s="5">
-        <v>43489</v>
+        <v>43521</v>
       </c>
       <c r="C176" s="1">
-        <v>18.420000000000002</v>
+        <v>10.92</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -2604,7 +2520,7 @@
         <v>120142079</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -2612,7 +2528,7 @@
         <v>120142080</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -2620,63 +2536,39 @@
         <v>120143001</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>120143002</v>
       </c>
-      <c r="B180" s="5">
-        <v>43486</v>
-      </c>
-      <c r="C180" s="1">
-        <v>1500</v>
-      </c>
       <c r="D180" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>120143003</v>
       </c>
-      <c r="B181" s="5">
-        <v>43483</v>
-      </c>
-      <c r="C181" s="1">
-        <v>193.44</v>
-      </c>
       <c r="D181" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>120143004</v>
       </c>
-      <c r="B182" s="5">
-        <v>43482</v>
-      </c>
-      <c r="C182" s="1">
-        <v>54.63</v>
-      </c>
       <c r="D182" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>120143005</v>
       </c>
-      <c r="B183" s="5">
-        <v>43482</v>
-      </c>
-      <c r="C183" s="1">
-        <v>92.46</v>
-      </c>
       <c r="D183" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -2684,7 +2576,7 @@
         <v>120143006</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -2692,13 +2584,13 @@
         <v>120143007</v>
       </c>
       <c r="B185" s="5">
-        <v>43488</v>
+        <v>43521</v>
       </c>
       <c r="C185" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -2706,35 +2598,35 @@
         <v>120143008</v>
       </c>
       <c r="B186" s="5">
-        <v>43487</v>
+        <v>43521</v>
       </c>
       <c r="C186" s="1">
-        <v>112.41</v>
+        <v>103.59</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>120143009</v>
       </c>
+      <c r="B187" s="5">
+        <v>43497</v>
+      </c>
+      <c r="C187" s="1">
+        <v>248.33</v>
+      </c>
       <c r="D187" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>120143010</v>
       </c>
-      <c r="B188" s="5">
-        <v>43487</v>
-      </c>
-      <c r="C188" s="1">
-        <v>53.1</v>
-      </c>
       <c r="D188" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -2742,7 +2634,7 @@
         <v>120143011</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -2750,7 +2642,7 @@
         <v>120143012</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -2758,21 +2650,15 @@
         <v>120143013</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>120143014</v>
       </c>
-      <c r="B192" s="5">
-        <v>43494</v>
-      </c>
-      <c r="C192" s="1">
-        <v>598.16</v>
-      </c>
       <c r="D192" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -2780,21 +2666,15 @@
         <v>120143015</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>120143016</v>
       </c>
-      <c r="B194" s="5">
-        <v>43489</v>
-      </c>
-      <c r="C194" s="1">
-        <v>32.869999999999997</v>
-      </c>
       <c r="D194" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -2802,7 +2682,7 @@
         <v>120143017</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -2810,7 +2690,7 @@
         <v>120143018</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -2818,7 +2698,7 @@
         <v>120143019</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -2826,15 +2706,21 @@
         <v>120143020</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>120143021</v>
       </c>
+      <c r="B199" s="5">
+        <v>43516</v>
+      </c>
+      <c r="C199" s="1">
+        <v>100</v>
+      </c>
       <c r="D199" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -2842,13 +2728,13 @@
         <v>120143022</v>
       </c>
       <c r="B200" s="5">
-        <v>43494</v>
+        <v>43518</v>
       </c>
       <c r="C200" s="1">
-        <v>65.510000000000005</v>
+        <v>70.66</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -2856,29 +2742,29 @@
         <v>120143023</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>120143024</v>
       </c>
+      <c r="B202" s="5">
+        <v>43502</v>
+      </c>
+      <c r="C202" s="1">
+        <v>300</v>
+      </c>
       <c r="D202" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>120143025</v>
       </c>
-      <c r="B203" s="5">
-        <v>43494</v>
-      </c>
-      <c r="C203" s="1">
-        <v>300</v>
-      </c>
       <c r="D203" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -2886,7 +2772,7 @@
         <v>120143026</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -2894,7 +2780,7 @@
         <v>120143027</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -2902,7 +2788,7 @@
         <v>120143028</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -2910,21 +2796,15 @@
         <v>120143029</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>120143030</v>
       </c>
-      <c r="B208" s="5">
-        <v>43493</v>
-      </c>
-      <c r="C208" s="1">
-        <v>100</v>
-      </c>
       <c r="D208" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -2932,7 +2812,7 @@
         <v>120143031</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -2940,21 +2820,15 @@
         <v>120143032</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>120143033</v>
       </c>
-      <c r="B211" s="5">
-        <v>43489</v>
-      </c>
-      <c r="C211" s="1">
-        <v>124.44</v>
-      </c>
       <c r="D211" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -2962,7 +2836,7 @@
         <v>120143034</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -2970,7 +2844,7 @@
         <v>120143035</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -2978,15 +2852,21 @@
         <v>120143036</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>120143037</v>
       </c>
+      <c r="B215" s="5">
+        <v>43517</v>
+      </c>
+      <c r="C215" s="1">
+        <v>400</v>
+      </c>
       <c r="D215" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -2994,7 +2874,7 @@
         <v>120143038</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -3002,7 +2882,7 @@
         <v>120143039</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -3010,7 +2890,7 @@
         <v>120143040</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -3018,7 +2898,7 @@
         <v>120143041</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -3026,21 +2906,15 @@
         <v>120143042</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>120143043</v>
       </c>
-      <c r="B221" s="5">
-        <v>43486</v>
-      </c>
-      <c r="C221" s="1">
-        <v>277</v>
-      </c>
       <c r="D221" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -3048,7 +2922,7 @@
         <v>120143044</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,7 +2930,7 @@
         <v>120143045</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -3064,7 +2938,7 @@
         <v>120143046</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -3072,7 +2946,7 @@
         <v>120143047</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,7 +2954,7 @@
         <v>120143048</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -3088,15 +2962,21 @@
         <v>120143049</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>120143050</v>
       </c>
+      <c r="B228" s="5">
+        <v>43521</v>
+      </c>
+      <c r="C228" s="1">
+        <v>532.57000000000005</v>
+      </c>
       <c r="D228" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -3104,7 +2984,7 @@
         <v>120143051</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -3112,21 +2992,27 @@
         <v>120143052</v>
       </c>
       <c r="B230" s="5">
-        <v>43488</v>
+        <v>43518</v>
       </c>
       <c r="C230" s="1">
         <v>70</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>120143053</v>
       </c>
+      <c r="B231" s="5">
+        <v>43497</v>
+      </c>
+      <c r="C231" s="1">
+        <v>1409.16</v>
+      </c>
       <c r="D231" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -3134,7 +3020,7 @@
         <v>120143054</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -3142,7 +3028,7 @@
         <v>120143055</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -3150,21 +3036,15 @@
         <v>120143056</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>120143057</v>
       </c>
-      <c r="B235" s="5">
-        <v>43490</v>
-      </c>
-      <c r="C235" s="1">
-        <v>60</v>
-      </c>
       <c r="D235" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -3172,21 +3052,15 @@
         <v>120143058</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>120143059</v>
       </c>
-      <c r="B237" s="5">
-        <v>43482</v>
-      </c>
-      <c r="C237" s="1">
-        <v>1644.09</v>
-      </c>
       <c r="D237" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -3194,21 +3068,15 @@
         <v>120143060</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>120143061</v>
       </c>
-      <c r="B239" s="5">
-        <v>43486</v>
-      </c>
-      <c r="C239" s="1">
-        <v>44.03</v>
-      </c>
       <c r="D239" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -3216,7 +3084,7 @@
         <v>120143062</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -3224,7 +3092,7 @@
         <v>120143063</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,13 +3100,13 @@
         <v>120143064</v>
       </c>
       <c r="B242" s="5">
-        <v>43128</v>
+        <v>43521</v>
       </c>
       <c r="C242" s="1">
-        <v>275.39999999999998</v>
+        <v>274.25</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
@@ -3246,7 +3114,7 @@
         <v>120143065</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
@@ -3254,7 +3122,7 @@
         <v>120143066</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -3262,27 +3130,21 @@
         <v>120143067</v>
       </c>
       <c r="B245" s="5">
-        <v>43488</v>
+        <v>43521</v>
       </c>
       <c r="C245" s="1">
-        <v>72.150000000000006</v>
+        <v>100</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>120143068</v>
       </c>
-      <c r="B246" s="5">
-        <v>43482</v>
-      </c>
-      <c r="C246" s="1">
-        <v>116.71</v>
-      </c>
       <c r="D246" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -3290,7 +3152,7 @@
         <v>120143069</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -3298,7 +3160,7 @@
         <v>120143070</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
@@ -3306,7 +3168,7 @@
         <v>120143071</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -3314,7 +3176,7 @@
         <v>120143072</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
@@ -3322,7 +3184,7 @@
         <v>120143073</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -3330,13 +3192,13 @@
         <v>120143074</v>
       </c>
       <c r="B252" s="5">
-        <v>43488</v>
+        <v>43524</v>
       </c>
       <c r="C252" s="1">
-        <v>97.26</v>
+        <v>82.49</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -3344,7 +3206,7 @@
         <v>120143075</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
@@ -3352,7 +3214,7 @@
         <v>120143076</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
@@ -3360,7 +3222,7 @@
         <v>120143077</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -3368,7 +3230,7 @@
         <v>120143078</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
@@ -3376,15 +3238,21 @@
         <v>120143079</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>120143080</v>
       </c>
+      <c r="B258" s="5">
+        <v>43497</v>
+      </c>
+      <c r="C258" s="1">
+        <v>22.16</v>
+      </c>
       <c r="D258" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
@@ -3392,21 +3260,15 @@
         <v>120143081</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>120143082</v>
       </c>
-      <c r="B260" s="5">
-        <v>43490</v>
-      </c>
-      <c r="C260" s="1">
-        <v>419.57</v>
-      </c>
       <c r="D260" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
@@ -3414,7 +3276,7 @@
         <v>120143083</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -3422,49 +3284,31 @@
         <v>120143084</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>120143085</v>
       </c>
-      <c r="B263" s="5">
-        <v>43470</v>
-      </c>
-      <c r="C263" s="1">
-        <v>117.02</v>
-      </c>
       <c r="D263" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>120143086</v>
       </c>
-      <c r="B264" s="5">
-        <v>43473</v>
-      </c>
-      <c r="C264" s="1">
-        <v>190</v>
-      </c>
       <c r="D264" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>120143087</v>
       </c>
-      <c r="B265" s="5">
-        <v>43487</v>
-      </c>
-      <c r="C265" s="1">
-        <v>226.55</v>
-      </c>
       <c r="D265" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -3472,37 +3316,39 @@
         <v>120143088</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
-        <v>110091017</v>
+        <v>110091014</v>
       </c>
       <c r="C267" s="1">
-        <v>32.590000000000003</v>
-      </c>
-      <c r="D267" s="4" t="s">
+        <v>47.25</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E267" s="6"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
-        <v>110091023</v>
+        <v>110091040</v>
       </c>
       <c r="C268" s="1">
-        <v>27.09</v>
+        <v>72</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E268" s="6"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
-        <v>110091054</v>
+        <v>110091045</v>
       </c>
       <c r="C269" s="1">
-        <v>16.350000000000001</v>
+        <v>60.75</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>0</v>
@@ -3511,10 +3357,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
-        <v>110091076</v>
+        <v>120142033</v>
       </c>
       <c r="C270" s="1">
-        <v>15.61</v>
+        <v>85.5</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>0</v>
@@ -3523,10 +3369,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
-        <v>110091095</v>
+        <v>120142044</v>
       </c>
       <c r="C271" s="1">
-        <v>217.25</v>
+        <v>72</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>0</v>
@@ -3534,79 +3380,7 @@
       <c r="E271" s="6"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="3">
-        <v>120142035</v>
-      </c>
-      <c r="C272" s="1">
-        <v>29.23</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="E272" s="6"/>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="3">
-        <v>110091014</v>
-      </c>
-      <c r="C273" s="1">
-        <v>47.25</v>
-      </c>
-      <c r="D273" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E273" s="6"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
-        <v>110091040</v>
-      </c>
-      <c r="C274" s="1">
-        <v>72</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E274" s="6"/>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="3">
-        <v>110091045</v>
-      </c>
-      <c r="C275" s="1">
-        <v>71.55</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E275" s="6"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="3">
-        <v>120142033</v>
-      </c>
-      <c r="C276" s="1">
-        <v>85.5</v>
-      </c>
-      <c r="D276" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E276" s="6"/>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="3">
-        <v>120142044</v>
-      </c>
-      <c r="C277" s="1">
-        <v>72</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E277" s="6"/>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E278" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
